--- a/AndroidSheet.xlsx
+++ b/AndroidSheet.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="11400" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Credentials" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Capabilities" sheetId="2" r:id="rId5"/>
+    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Capabilities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Key</t>
   </si>
@@ -38,12 +41,12 @@
     <t>invalid@invalid.cred</t>
   </si>
   <si>
-    <t>deviceType</t>
-  </si>
-  <si>
     <t>RealDevice</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>platformName</t>
   </si>
   <si>
@@ -81,45 +84,222 @@
   </si>
   <si>
     <t>uiautomator2</t>
+  </si>
+  <si>
+    <t>CloudDevice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -129,19 +309,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -155,45 +515,365 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -383,32 +1063,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.5"/>
-    <col customWidth="1" min="2" max="2" width="48.0"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -416,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -424,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -433,33 +1117,37 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.75"/>
-    <col customWidth="1" min="2" max="2" width="71.75"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -467,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -475,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -483,15 +1171,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -499,7 +1187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -507,7 +1195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -515,59 +1203,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AndroidSheet.xlsx
+++ b/AndroidSheet.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Capabilities" sheetId="2" r:id="rId2"/>
+    <sheet name="Real Device Capabilities" sheetId="2" r:id="rId2"/>
+    <sheet name="BS_Cloud device capabilities" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Key</t>
   </si>
@@ -87,6 +88,51 @@
   </si>
   <si>
     <t>CloudDevice</t>
+  </si>
+  <si>
+    <t>cloudDeviceName</t>
+  </si>
+  <si>
+    <t>Google Pixel 6 Pro</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>AC Container</t>
+  </si>
+  <si>
+    <t>buildName</t>
+  </si>
+  <si>
+    <t>AnswerConnect</t>
+  </si>
+  <si>
+    <t>testName</t>
+  </si>
+  <si>
+    <t>AnswerConnect Container</t>
+  </si>
+  <si>
+    <t>appID</t>
+  </si>
+  <si>
+    <t>bs://9e835a485b0a05ee7e844cdd7d1b565762a5c792</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>answerconnect_d0BTEv</t>
+  </si>
+  <si>
+    <t>accessKey</t>
+  </si>
+  <si>
+    <t>wjqrx6hhPmJcz2k7BH3T</t>
   </si>
 </sst>
 </file>
@@ -94,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -110,6 +156,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -133,6 +197,44 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -140,9 +242,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,141 +345,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -309,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +570,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,21 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -555,11 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +655,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -596,8 +690,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -617,198 +713,187 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,34 +1170,34 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1127,10 +1212,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1140,6 +1225,139 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27.0803571428571" customWidth="1"/>
+    <col min="2" max="2" width="63.2410714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,117 +1365,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" ht="15" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="13" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="13" customHeight="1" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" customHeight="1" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AndroidSheet.xlsx
+++ b/AndroidSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Key</t>
   </si>
@@ -30,7 +30,7 @@
     <t>mobileac@mailinator.com</t>
   </si>
   <si>
-    <t>password</t>
+    <t>validPassword</t>
   </si>
   <si>
     <t>test123123</t>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>invalid@invalid.cred</t>
+  </si>
+  <si>
+    <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>invalid123123</t>
+  </si>
+  <si>
+    <t>callUs</t>
+  </si>
+  <si>
+    <t>Need help? Call Us</t>
+  </si>
+  <si>
+    <t>termsPrivacy</t>
+  </si>
+  <si>
+    <t>By logging in you agree to Terms &amp; Privacy</t>
+  </si>
+  <si>
+    <t>SIWG</t>
+  </si>
+  <si>
+    <t>Sign in with Google</t>
   </si>
   <si>
     <t>RealDevice</t>
@@ -140,12 +164,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,12 +219,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -210,62 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,37 +247,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,8 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +287,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +361,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -379,13 +409,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +481,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +535,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,139 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,30 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -664,11 +670,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +713,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,152 +746,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -895,6 +925,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1157,13 +1193,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
@@ -1186,19 +1222,51 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1234,31 +1302,31 @@
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7">
         <v>13</v>
@@ -1266,34 +1334,34 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
@@ -1347,7 +1415,7 @@
   <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1367,23 +1435,23 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>13</v>
@@ -1391,50 +1459,50 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/AndroidSheet.xlsx
+++ b/AndroidSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Key</t>
   </si>
@@ -36,34 +36,46 @@
     <t>test123123</t>
   </si>
   <si>
+    <t>wrongEmail</t>
+  </si>
+  <si>
+    <t>wrong@email.cred</t>
+  </si>
+  <si>
+    <t>wrongPassword</t>
+  </si>
+  <si>
+    <t>wrongpass123123</t>
+  </si>
+  <si>
+    <t>callUs</t>
+  </si>
+  <si>
+    <t>Need help? Call Us</t>
+  </si>
+  <si>
+    <t>termsPrivacy</t>
+  </si>
+  <si>
+    <t>By logging in you agree to Terms &amp; Privacy</t>
+  </si>
+  <si>
+    <t>SIWG</t>
+  </si>
+  <si>
+    <t>Sign in with Google</t>
+  </si>
+  <si>
     <t>invalidEmail</t>
   </si>
   <si>
-    <t>invalid@invalid.cred</t>
+    <t>invalid@cred</t>
   </si>
   <si>
     <t>invalidPassword</t>
   </si>
   <si>
-    <t>invalid123123</t>
-  </si>
-  <si>
-    <t>callUs</t>
-  </si>
-  <si>
-    <t>Need help? Call Us</t>
-  </si>
-  <si>
-    <t>termsPrivacy</t>
-  </si>
-  <si>
-    <t>By logging in you agree to Terms &amp; Privacy</t>
-  </si>
-  <si>
-    <t>SIWG</t>
-  </si>
-  <si>
-    <t>Sign in with Google</t>
+    <t>inva</t>
   </si>
   <si>
     <t>RealDevice</t>
@@ -90,7 +102,7 @@
     <t>deviceName</t>
   </si>
   <si>
-    <t>08301JEC200526</t>
+    <t>2A051JEGR04882</t>
   </si>
   <si>
     <t>appPackage</t>
@@ -102,16 +114,19 @@
     <t>appActivity</t>
   </si>
   <si>
-    <t>com.anywhere.container.presentation.ui.MainActivity</t>
+    <t>com.container.branding.BrandingNavActivity</t>
   </si>
   <si>
     <t>automationName</t>
   </si>
   <si>
-    <t>uiautomator2</t>
+    <t>UiAutomator2</t>
   </si>
   <si>
     <t>CloudDevice</t>
+  </si>
+  <si>
+    <t>SauceLabs</t>
   </si>
   <si>
     <t>cloudDeviceName</t>
@@ -164,12 +179,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,18 +220,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
@@ -225,15 +232,96 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,21 +337,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +373,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -285,7 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -293,84 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +674,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -670,21 +722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -692,39 +729,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,155 +747,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -914,22 +942,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,23 +1239,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1222,42 +1268,42 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1265,11 +1311,31 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="invalid@cred"/>
+    <hyperlink ref="B4" r:id="rId2" display="wrong@email.cred"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1282,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1302,107 +1368,107 @@
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1416,7 +1482,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1435,23 +1501,23 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>13</v>
@@ -1459,50 +1525,50 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
